--- a/biology/Médecine/1606_en_santé_et_médecine/1606_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1606_en_santé_et_médecine/1606_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1606_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1606_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1606 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1606_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1606_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les apothicaires de Londres sont incorporés à la compagnie des épiciers (Grocers' Company (en)), dont ils se sépareront dès 1617 pour fonder leur propre société (Society of Apothicaries (en)[1]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les apothicaires de Londres sont incorporés à la compagnie des épiciers (Grocers' Company (en)), dont ils se sépareront dès 1617 pour fonder leur propre société (Society of Apothicaries (en)).</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1606_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1606_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jakob Zwinger fait paraître son Principiorum chymicorum examen[2].
-Publication posthume du De reliquis animalibus exanguibus d'Ulisse Aldrovandi[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jakob Zwinger fait paraître son Principiorum chymicorum examen.
+Publication posthume du De reliquis animalibus exanguibus d'Ulisse Aldrovandi.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1606_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1606_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,10 +588,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>16 mai (bapt.) : John Bulwer (mort en 1656), médecin et philosophe anglais[4].
-Jacques Barrelier (mort en 1673), dominicain, médecin et botaniste français[5],[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>16 mai (bapt.) : John Bulwer (mort en 1656), médecin et philosophe anglais.
+Jacques Barrelier (mort en 1673), dominicain, médecin et botaniste français,.</t>
         </is>
       </c>
     </row>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1606_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1606_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,12 +621,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">8 novembre : Girolamo Mercuriale (né en 1530), médecin et philologue italien[7],[8].
-19 novembre : Henri de Monantheuil (né en 1536), mathématicien et médecin français[9].
-Jacques d'Amboise (né en 1559), « chirurgien juré au Châtelet comme son père, puis chirurgien d'Henri III », et enfin, ayant pris ses grades à la Faculté,  médecin d'Henri IV[10], mais n'ayant sans doute pas été nommé lecteur royal, contrairement à ce qu'on a pu penser[11].
-1606 ou 1610 : Antonio Minutoli (it) (né en 1531), médecin italien[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">8 novembre : Girolamo Mercuriale (né en 1530), médecin et philologue italien,.
+19 novembre : Henri de Monantheuil (né en 1536), mathématicien et médecin français.
+Jacques d'Amboise (né en 1559), « chirurgien juré au Châtelet comme son père, puis chirurgien d'Henri III », et enfin, ayant pris ses grades à la Faculté,  médecin d'Henri IV, mais n'ayant sans doute pas été nommé lecteur royal, contrairement à ce qu'on a pu penser.
+1606 ou 1610 : Antonio Minutoli (it) (né en 1531), médecin italien.
 </t>
         </is>
       </c>
